--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biti9\Documents\UiPath\ReFramework_UiDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF993D87-A35B-4B99-A98C-CE83258E0292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC71179-40F0-48D7-A77E-1041F049063C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3223" yWindow="3223" windowWidth="16457" windowHeight="9548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3831" yWindow="1337" windowWidth="16458" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>tableTransaction</t>
+  </si>
+  <si>
+    <t>UiDemoPath</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1"/>
@@ -2675,7 +2678,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1"/>
@@ -2720,7 +2723,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biti9\Documents\UiPath\ReFramework_UiDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC71179-40F0-48D7-A77E-1041F049063C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE68E17-CBA6-462E-A666-CAF8B7BF8B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3831" yWindow="1337" windowWidth="16458" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -116,10 +116,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>tableTransaction</t>
+    <t>UiDemoPath</t>
   </si>
   <si>
-    <t>UiDemoPath</t>
+    <t>UiDemoCredential</t>
+  </si>
+  <si>
+    <t>credencial-UiDemo</t>
+  </si>
+  <si>
+    <t>data_queue_transaction</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1"/>
@@ -542,13 +548,20 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>26</v>
@@ -2725,10 +2738,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biti9\Documents\UiPath\ReFramework_UiDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC71179-40F0-48D7-A77E-1041F049063C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6038F-06EE-4ED3-B81D-7E5AFA0D6CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3831" yWindow="1337" windowWidth="16458" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3831" yWindow="1337" windowWidth="16449" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -116,17 +116,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>tableTransaction</t>
+    <t>UiDemoPath</t>
   </si>
   <si>
-    <t>UiDemoPath</t>
+    <t>data_queue_transaction</t>
+  </si>
+  <si>
+    <t>UiDemoCredential</t>
+  </si>
+  <si>
+    <t>UiDemoCredential_REFramework</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,6 +156,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF485056"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,10 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +505,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1"/>
@@ -541,14 +554,21 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>26</v>
@@ -562,7 +582,9 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B7" s="3"/>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2725,10 +2747,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
